--- a/workshops/202510_madrid/horario_workshop_madrid.xlsx
+++ b/workshops/202510_madrid/horario_workshop_madrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/GoogleDrive-ajperez@go.ugr.es/My Drive/_proyectos/redec/web/workshops/202510_madrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B6B43C-5399-6C4D-84FD-9FA3029D529F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753C38B6-C470-EA4A-8863-189ED5893D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30240" yWindow="9920" windowWidth="30240" windowHeight="18880" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
   </bookViews>
@@ -124,12 +124,6 @@
     <t>Internacionalización, conclusiones y hoja de ruta</t>
   </si>
   <si>
-    <t>Miren del Río, Rafael Calama, Marta Pardos, Guillermo Gea-Izquierdo, Antonio J. Pérez-Luque</t>
-  </si>
-  <si>
-    <t>Salida desde Ciudad Universitaria (por concretar)</t>
-  </si>
-  <si>
     <t>Visita a zona de Valdemaqueda</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t>Regreso a Ciudad Universitaria (Madrid)</t>
   </si>
   <si>
-    <t>Genética y decaimiento deen coníferas de la región ibero-magrevina</t>
-  </si>
-  <si>
     <t>Agentes bióticos</t>
   </si>
   <si>
@@ -164,6 +155,15 @@
   </si>
   <si>
     <t xml:space="preserve">El decaimiento en el Levante y Sudeste de la Península Ibérica </t>
+  </si>
+  <si>
+    <t>Genética y decaimiento de coníferas de la región ibero-magrebina</t>
+  </si>
+  <si>
+    <t>Salida desde ICIFOR</t>
+  </si>
+  <si>
+    <t>Miren del Río, Rafael Calama, Marta Pardos, Guillermo Gea-Izquierdo, Antonio J. Pérez-Luque, Paloma Ruiz-Benito</t>
   </si>
 </sst>
 </file>
@@ -558,8 +558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23842808-1F00-0647-BAD4-FECC29C5B258}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -739,7 +739,7 @@
         <v>0.65625</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
         <v>0</v>
@@ -759,7 +759,7 @@
         <v>0.6875</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" t="s">
@@ -817,16 +817,16 @@
         <v>29</v>
       </c>
       <c r="C12" s="7">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D12" s="7">
         <v>0.375</v>
       </c>
-      <c r="D12" s="7">
-        <v>0.38541666666666669</v>
-      </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>29</v>
+        <v>42</v>
       </c>
       <c r="G12" t="s">
         <v>7</v>
@@ -840,7 +840,7 @@
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
@@ -854,7 +854,7 @@
         <v>29</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
@@ -874,7 +874,7 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
@@ -914,7 +914,7 @@
         <v>0.46875</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" t="s">
@@ -935,7 +935,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G18" t="s">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0.40625</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" t="s">
@@ -976,7 +976,7 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="G20" t="s">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G21" t="s">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0.52083333333333337</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
         <v>0</v>
@@ -1138,7 +1138,7 @@
         <v>0.53125</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G28" t="s">
         <v>0</v>

--- a/workshops/202510_madrid/horario_workshop_madrid.xlsx
+++ b/workshops/202510_madrid/horario_workshop_madrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/GoogleDrive-ajperez@go.ugr.es/My Drive/_proyectos/redec/web/workshops/202510_madrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{753C38B6-C470-EA4A-8863-189ED5893D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359F9739-DA19-5B43-BBF5-4A1F528D47B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="9920" windowWidth="30240" windowHeight="18880" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="26900" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
   <si>
     <t>mesa</t>
   </si>
@@ -73,12 +73,6 @@
     <t>type</t>
   </si>
   <si>
-    <t xml:space="preserve">Bases de datos </t>
-  </si>
-  <si>
-    <t>Antonio J. Pérez-Luque, Paloma Ruiz-Benito  y Julen Astigarraga</t>
-  </si>
-  <si>
     <t>start</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>Suelos</t>
   </si>
   <si>
-    <t>Antonio Gazol y Cristina Acosta</t>
-  </si>
-  <si>
     <t>estudios_caso</t>
   </si>
   <si>
@@ -103,36 +94,9 @@
     <t>Debate abierto con participación de todos los asistentes</t>
   </si>
   <si>
-    <t xml:space="preserve">Utilización de la diversidad genética en la adaptación al cambio climático </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clausura de las jornadas </t>
-  </si>
-  <si>
-    <t>Estrategias de adaptación al Cambio climático</t>
-  </si>
-  <si>
-    <t>Legislación a nivel nacional</t>
-  </si>
-  <si>
     <t>Francisco Lloret, Paloma Ruiz-Benito, Miren del Río, Rafael Calama, Antonio J. Pérez-Luque</t>
   </si>
   <si>
-    <t>Lorena Gómez-Aparicio y Jorge Curiel</t>
-  </si>
-  <si>
-    <t>Internacionalización, conclusiones y hoja de ruta</t>
-  </si>
-  <si>
-    <t>Visita a zona de Valdemaqueda</t>
-  </si>
-  <si>
-    <t>Visita a San Martín de Valdeiglesias / Hoyo de Pinares </t>
-  </si>
-  <si>
-    <t>Regreso a Ciudad Universitaria (Madrid)</t>
-  </si>
-  <si>
     <t>Agentes bióticos</t>
   </si>
   <si>
@@ -151,19 +115,88 @@
     <t>Gestión forestal ante el decaimiento en el Levante y SE de la Península Ibérica</t>
   </si>
   <si>
-    <t>Adaptación a plagas en el NW de la Península Ibérica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">El decaimiento en el Levante y Sudeste de la Península Ibérica </t>
-  </si>
-  <si>
-    <t>Genética y decaimiento de coníferas de la región ibero-magrebina</t>
-  </si>
-  <si>
-    <t>Salida desde ICIFOR</t>
-  </si>
-  <si>
     <t>Miren del Río, Rafael Calama, Marta Pardos, Guillermo Gea-Izquierdo, Antonio J. Pérez-Luque, Paloma Ruiz-Benito</t>
+  </si>
+  <si>
+    <t>Bases de datos</t>
+  </si>
+  <si>
+    <t>Antonio J. Pérez-Luque, Paloma Ruiz-Benito, Julen Astigarraga</t>
+  </si>
+  <si>
+    <t>Antonio Gazol, Cristina Acosta</t>
+  </si>
+  <si>
+    <t>Lorena Gómez-Aparicio, Jorge Curiel</t>
+  </si>
+  <si>
+    <t>Internacionalización</t>
+  </si>
+  <si>
+    <t>Jordi Martínez-Vilalta</t>
+  </si>
+  <si>
+    <t>Conclusiones y hoja de ruta</t>
+  </si>
+  <si>
+    <t>Salida desde ICIFOR - INIA</t>
+  </si>
+  <si>
+    <t>Mirador de la Venta (M-512)</t>
+  </si>
+  <si>
+    <t>Visita Valdemaqueda</t>
+  </si>
+  <si>
+    <t>Visita zona decaimiento P. pinea</t>
+  </si>
+  <si>
+    <t>Regreso al INIA</t>
+  </si>
+  <si>
+    <t>El decaimiento en el Levante y Sudeste de la Península Ibérica</t>
+  </si>
+  <si>
+    <t>Luna Morcillo</t>
+  </si>
+  <si>
+    <t>Alberto Vilagrosa</t>
+  </si>
+  <si>
+    <t>Isabel Gonzalez</t>
+  </si>
+  <si>
+    <t>Esteban Jordan</t>
+  </si>
+  <si>
+    <t>Utilización de la diversidad genética en la adaptación al cambio climático</t>
+  </si>
+  <si>
+    <t>Adaptación biológica al cambio climático y gestión forestal: una visión evolutiva</t>
+  </si>
+  <si>
+    <t>Juan José Robredo / Jose Alberto Ramírez Valiente (por confirmar)</t>
+  </si>
+  <si>
+    <t>Mejora y conservación de los recursos genéticos forestales en España en un contexto de cambio global</t>
+  </si>
+  <si>
+    <t>Felipe Pérez Martín</t>
+  </si>
+  <si>
+    <t>Diversidad genética y capacidad adaptativa en pinsapares y cedrales con decaimiento</t>
+  </si>
+  <si>
+    <t>Juan Carlos Linares</t>
+  </si>
+  <si>
+    <t>Clausura de las jornadas</t>
+  </si>
+  <si>
+    <t>Jonás Oliva</t>
+  </si>
+  <si>
+    <t>Raúl Sánchez Salguero</t>
   </si>
 </sst>
 </file>
@@ -173,7 +206,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="hh:mm;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,23 +222,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -231,17 +250,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,15 +575,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23842808-1F00-0647-BAD4-FECC29C5B258}">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="5.1640625" customWidth="1"/>
-    <col min="3" max="4" width="6.83203125" style="7" customWidth="1"/>
-    <col min="5" max="5" width="62.5" customWidth="1"/>
+    <col min="3" max="4" width="6.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="49.83203125" customWidth="1"/>
     <col min="6" max="6" width="76.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -577,11 +594,11 @@
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>15</v>
+      <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
@@ -600,17 +617,17 @@
       <c r="B2">
         <v>28</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="4">
         <v>0.375</v>
       </c>
-      <c r="D2" s="7">
+      <c r="D2" s="4">
         <v>0.39583333333333331</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -623,17 +640,17 @@
       <c r="B3">
         <v>28</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>0.45833333333333331</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F3" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -646,10 +663,10 @@
       <c r="B4">
         <v>28</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="4">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>0.47916666666666669</v>
       </c>
       <c r="E4" t="s">
@@ -666,17 +683,17 @@
       <c r="B5">
         <v>28</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>0.52083333333333337</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G5" t="s">
         <v>0</v>
@@ -689,17 +706,17 @@
       <c r="B6">
         <v>28</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="4">
         <v>0.5625</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
@@ -712,10 +729,10 @@
       <c r="B7">
         <v>28</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="4">
         <v>0.5625</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>0.625</v>
       </c>
       <c r="E7" t="s">
@@ -732,14 +749,17 @@
       <c r="B8">
         <v>28</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="4">
         <v>0.625</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>0.65625</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>20</v>
+      </c>
+      <c r="F8" t="s">
+        <v>52</v>
       </c>
       <c r="G8" t="s">
         <v>0</v>
@@ -752,16 +772,18 @@
       <c r="B9">
         <v>28</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="4">
         <v>0.65625</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>0.6875</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>21</v>
+      </c>
+      <c r="F9" t="s">
+        <v>4</v>
+      </c>
       <c r="G9" t="s">
         <v>0</v>
       </c>
@@ -773,10 +795,10 @@
       <c r="B10">
         <v>28</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="4">
         <v>0.6875</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>0.70833333333333337</v>
       </c>
       <c r="E10" t="s">
@@ -793,17 +815,17 @@
       <c r="B11">
         <v>28</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D11" s="7">
-        <v>0.77083333333333337</v>
+      <c r="D11" s="4">
+        <v>0.72222222222222221</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G11" t="s">
         <v>0</v>
@@ -811,25 +833,25 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>29</v>
-      </c>
-      <c r="C12" s="7">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="D12" s="7">
-        <v>0.375</v>
+        <v>28</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.72222222222222221</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.77083333333333337</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G12" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -839,8 +861,17 @@
       <c r="B13">
         <v>29</v>
       </c>
+      <c r="C13" s="4">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.375</v>
+      </c>
       <c r="E13" t="s">
-        <v>29</v>
+        <v>34</v>
+      </c>
+      <c r="F13" t="s">
+        <v>26</v>
       </c>
       <c r="G13" t="s">
         <v>7</v>
@@ -853,8 +884,14 @@
       <c r="B14">
         <v>29</v>
       </c>
+      <c r="C14" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.4375</v>
+      </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
@@ -867,116 +904,114 @@
       <c r="B15">
         <v>29</v>
       </c>
-      <c r="C15" s="7">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.80208333333333337</v>
+      <c r="C15" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.47916666666666669</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B16">
-        <v>30</v>
-      </c>
-      <c r="C16" s="7">
-        <v>0.375</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0.38541666666666669</v>
+        <v>29</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.54166666666666663</v>
       </c>
       <c r="E16" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G16" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B17">
-        <v>30</v>
-      </c>
-      <c r="C17" s="7">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D17" s="7">
-        <v>0.46875</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F17" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
       <c r="G17" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B18">
-        <v>30</v>
-      </c>
-      <c r="C18" s="7">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="D18" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>34</v>
+        <v>29</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="G18" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B19">
-        <v>30</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="D19" s="7">
-        <v>0.40625</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F19" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.69791666666666663</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.73958333333333337</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
       <c r="G19" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20">
         <v>30</v>
       </c>
-      <c r="C20" s="7">
-        <v>0.40625</v>
-      </c>
-      <c r="D20" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>36</v>
+      <c r="C20" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
       </c>
       <c r="G20" t="s">
         <v>0</v>
@@ -984,19 +1019,22 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21">
         <v>30</v>
       </c>
-      <c r="C21" s="7">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="D21" s="7">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>37</v>
+      <c r="C21" s="4">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s">
+        <v>40</v>
       </c>
       <c r="G21" t="s">
         <v>0</v>
@@ -1004,81 +1042,91 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22">
         <v>30</v>
       </c>
-      <c r="C22" s="7">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="D22" s="7">
-        <v>0.46875</v>
+      <c r="C22" s="4">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.39583333333333331</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
-      </c>
-      <c r="F22" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="F22" t="s">
+        <v>41</v>
+      </c>
       <c r="G22" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23">
         <v>30</v>
       </c>
-      <c r="C23" s="7">
-        <v>0.46875</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0.48958333333333331</v>
+      <c r="C23" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.40625</v>
       </c>
       <c r="E23" t="s">
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="F23" t="s">
+        <v>53</v>
       </c>
       <c r="G23" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B24">
         <v>30</v>
       </c>
-      <c r="C24" s="7">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0.57291666666666663</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F24" s="2"/>
+      <c r="C24" s="4">
+        <v>0.40625</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E24" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" t="s">
+        <v>42</v>
+      </c>
       <c r="G24" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B25">
         <v>30</v>
       </c>
-      <c r="C25" s="7">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0.5</v>
+      <c r="C25" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.42708333333333331</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>43</v>
       </c>
       <c r="G25" t="s">
         <v>0</v>
@@ -1086,19 +1134,19 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26">
         <v>30</v>
       </c>
-      <c r="C26" s="7">
-        <v>0.5</v>
-      </c>
-      <c r="D26" s="7">
-        <v>0.51041666666666663</v>
+      <c r="C26" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.46875</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
         <v>0</v>
@@ -1106,39 +1154,39 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B27">
         <v>30</v>
       </c>
-      <c r="C27" s="7">
-        <v>0.51041666666666663</v>
-      </c>
-      <c r="D27" s="7">
-        <v>0.52083333333333337</v>
+      <c r="C27" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.48958333333333331</v>
       </c>
       <c r="E27" t="s">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28">
         <v>30</v>
       </c>
-      <c r="C28" s="7">
-        <v>0.52083333333333337</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0.53125</v>
+      <c r="C28" s="4">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.57291666666666663</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
         <v>0</v>
@@ -1146,19 +1194,22 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B29">
         <v>30</v>
       </c>
-      <c r="C29" s="7">
-        <v>0.53125</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0.57291666666666663</v>
+      <c r="C29" s="4">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.50347222222222221</v>
       </c>
       <c r="E29" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="F29" t="s">
+        <v>46</v>
       </c>
       <c r="G29" t="s">
         <v>0</v>
@@ -1166,32 +1217,98 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B30">
         <v>30</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C30" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="E30" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" t="s">
+        <v>48</v>
+      </c>
+      <c r="G30" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="D32" s="4">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D30" s="7">
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D33" s="4">
         <v>0.60763888888888884</v>
       </c>
-      <c r="E30" t="s">
-        <v>23</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+      <c r="F33" t="s">
         <v>4</v>
       </c>
-      <c r="G30" t="s">
+      <c r="G33" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F68" s="3"/>
+      <c r="F68" s="2"/>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F69" s="3"/>
+      <c r="F69" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workshops/202510_madrid/horario_workshop_madrid.xlsx
+++ b/workshops/202510_madrid/horario_workshop_madrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/GoogleDrive-ajperez@go.ugr.es/My Drive/_proyectos/redec/web/workshops/202510_madrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359F9739-DA19-5B43-BBF5-4A1F528D47B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7613A5E3-9C04-9941-ABAB-6E83A20F6D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="26900" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
+    <workbookView xWindow="9560" yWindow="1120" windowWidth="25600" windowHeight="26900" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
   <si>
     <t>mesa</t>
   </si>
@@ -175,9 +175,6 @@
     <t>Adaptación biológica al cambio climático y gestión forestal: una visión evolutiva</t>
   </si>
   <si>
-    <t>Juan José Robredo / Jose Alberto Ramírez Valiente (por confirmar)</t>
-  </si>
-  <si>
     <t>Mejora y conservación de los recursos genéticos forestales en España en un contexto de cambio global</t>
   </si>
   <si>
@@ -197,6 +194,18 @@
   </si>
   <si>
     <t>Raúl Sánchez Salguero</t>
+  </si>
+  <si>
+    <t>Bienvenida</t>
+  </si>
+  <si>
+    <t>Maria Teresa Cervera Goy (Directora del ICIFOR-INIA, CSIC)</t>
+  </si>
+  <si>
+    <t>Jose Alberto Ramírez Valiente</t>
+  </si>
+  <si>
+    <t>Juan José Robledo</t>
   </si>
 </sst>
 </file>
@@ -250,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -259,6 +268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -573,10 +583,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23842808-1F00-0647-BAD4-FECC29C5B258}">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -610,30 +620,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="6">
         <v>28</v>
       </c>
       <c r="C2" s="4">
         <v>0.375</v>
       </c>
       <c r="D2" s="4">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -641,16 +651,16 @@
         <v>28</v>
       </c>
       <c r="C3" s="4">
+        <v>0.37847222222222221</v>
+      </c>
+      <c r="D3" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D3" s="4">
-        <v>0.45833333333333331</v>
-      </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -664,16 +674,19 @@
         <v>28</v>
       </c>
       <c r="C4" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D4" s="4">
         <v>0.45833333333333331</v>
       </c>
-      <c r="D4" s="4">
-        <v>0.47916666666666669</v>
-      </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>27</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -684,19 +697,16 @@
         <v>28</v>
       </c>
       <c r="C5" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D5" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D5" s="4">
-        <v>0.52083333333333337</v>
-      </c>
       <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -707,16 +717,16 @@
         <v>28</v>
       </c>
       <c r="C6" s="4">
+        <v>0.47916666666666669</v>
+      </c>
+      <c r="D6" s="4">
         <v>0.52083333333333337</v>
       </c>
-      <c r="D6" s="4">
-        <v>0.5625</v>
-      </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
@@ -730,16 +740,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="4">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="D7" s="4">
         <v>0.5625</v>
       </c>
-      <c r="D7" s="4">
-        <v>0.625</v>
-      </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -750,19 +763,16 @@
         <v>28</v>
       </c>
       <c r="C8" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="D8" s="4">
         <v>0.625</v>
       </c>
-      <c r="D8" s="4">
-        <v>0.65625</v>
-      </c>
       <c r="E8" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" t="s">
-        <v>52</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -773,16 +783,16 @@
         <v>28</v>
       </c>
       <c r="C9" s="4">
+        <v>0.625</v>
+      </c>
+      <c r="D9" s="4">
         <v>0.65625</v>
       </c>
-      <c r="D9" s="4">
-        <v>0.6875</v>
-      </c>
       <c r="E9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="G9" t="s">
         <v>0</v>
@@ -796,16 +806,19 @@
         <v>28</v>
       </c>
       <c r="C10" s="4">
+        <v>0.65625</v>
+      </c>
+      <c r="D10" s="4">
         <v>0.6875</v>
       </c>
-      <c r="D10" s="4">
-        <v>0.70833333333333337</v>
-      </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>21</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -816,19 +829,16 @@
         <v>28</v>
       </c>
       <c r="C11" s="4">
+        <v>0.6875</v>
+      </c>
+      <c r="D11" s="4">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D11" s="4">
-        <v>0.72222222222222221</v>
-      </c>
       <c r="E11" t="s">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -839,16 +849,16 @@
         <v>28</v>
       </c>
       <c r="C12" s="4">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="D12" s="4">
         <v>0.72222222222222221</v>
       </c>
-      <c r="D12" s="4">
-        <v>0.77083333333333337</v>
-      </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F12" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>0</v>
@@ -856,25 +866,25 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B13">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="4">
-        <v>0.36458333333333331</v>
+        <v>0.72222222222222221</v>
       </c>
       <c r="D13" s="4">
-        <v>0.375</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G13" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -885,13 +895,16 @@
         <v>29</v>
       </c>
       <c r="C14" s="4">
-        <v>0.41666666666666669</v>
+        <v>0.36458333333333331</v>
       </c>
       <c r="D14" s="4">
-        <v>0.4375</v>
+        <v>0.375</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="F14" t="s">
+        <v>26</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
@@ -905,16 +918,16 @@
         <v>29</v>
       </c>
       <c r="C15" s="4">
-        <v>0.45833333333333331</v>
+        <v>0.41666666666666669</v>
       </c>
       <c r="D15" s="4">
-        <v>0.47916666666666669</v>
+        <v>0.4375</v>
       </c>
       <c r="E15" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="G15" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -925,16 +938,16 @@
         <v>29</v>
       </c>
       <c r="C16" s="4">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="D16" s="4">
         <v>0.47916666666666669</v>
       </c>
-      <c r="D16" s="4">
-        <v>0.54166666666666663</v>
-      </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -945,16 +958,16 @@
         <v>29</v>
       </c>
       <c r="C17" s="4">
-        <v>0.5625</v>
+        <v>0.47916666666666669</v>
       </c>
       <c r="D17" s="4">
-        <v>0.58333333333333337</v>
+        <v>0.54166666666666663</v>
       </c>
       <c r="E17" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="G17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -965,16 +978,16 @@
         <v>29</v>
       </c>
       <c r="C18" s="4">
+        <v>0.5625</v>
+      </c>
+      <c r="D18" s="4">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D18" s="4">
-        <v>0.6875</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>37</v>
+      <c r="E18" t="s">
+        <v>3</v>
       </c>
       <c r="G18" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -985,13 +998,13 @@
         <v>29</v>
       </c>
       <c r="C19" s="4">
-        <v>0.69791666666666663</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D19" s="4">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="E19" t="s">
-        <v>38</v>
+        <v>0.6875</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>37</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
@@ -999,22 +1012,22 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="4">
-        <v>0.375</v>
+        <v>0.69791666666666663</v>
       </c>
       <c r="D20" s="4">
-        <v>0.38541666666666669</v>
+        <v>0.73958333333333337</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="G20" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1025,16 +1038,13 @@
         <v>30</v>
       </c>
       <c r="C21" s="4">
+        <v>0.375</v>
+      </c>
+      <c r="D21" s="4">
         <v>0.38541666666666669</v>
       </c>
-      <c r="D21" s="4">
-        <v>0.46875</v>
-      </c>
       <c r="E21" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
+        <v>17</v>
       </c>
       <c r="G21" t="s">
         <v>0</v>
@@ -1051,13 +1061,13 @@
         <v>0.38541666666666669</v>
       </c>
       <c r="D22" s="4">
-        <v>0.39583333333333331</v>
+        <v>0.46875</v>
       </c>
       <c r="E22" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G22" t="s">
         <v>0</v>
@@ -1071,16 +1081,16 @@
         <v>30</v>
       </c>
       <c r="C23" s="4">
+        <v>0.38541666666666669</v>
+      </c>
+      <c r="D23" s="4">
         <v>0.39583333333333331</v>
       </c>
-      <c r="D23" s="4">
-        <v>0.40625</v>
-      </c>
       <c r="E23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="G23" t="s">
         <v>0</v>
@@ -1094,16 +1104,16 @@
         <v>30</v>
       </c>
       <c r="C24" s="4">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="D24" s="4">
         <v>0.40625</v>
       </c>
-      <c r="D24" s="4">
-        <v>0.41666666666666669</v>
-      </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F24" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
         <v>0</v>
@@ -1117,16 +1127,16 @@
         <v>30</v>
       </c>
       <c r="C25" s="4">
+        <v>0.40625</v>
+      </c>
+      <c r="D25" s="4">
         <v>0.41666666666666669</v>
       </c>
-      <c r="D25" s="4">
-        <v>0.42708333333333331</v>
-      </c>
       <c r="E25" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
         <v>0</v>
@@ -1140,13 +1150,16 @@
         <v>30</v>
       </c>
       <c r="C26" s="4">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="D26" s="4">
         <v>0.42708333333333331</v>
       </c>
-      <c r="D26" s="4">
-        <v>0.46875</v>
-      </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>43</v>
       </c>
       <c r="G26" t="s">
         <v>0</v>
@@ -1160,16 +1173,16 @@
         <v>30</v>
       </c>
       <c r="C27" s="4">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="D27" s="4">
         <v>0.46875</v>
       </c>
-      <c r="D27" s="4">
-        <v>0.48958333333333331</v>
-      </c>
       <c r="E27" t="s">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -1180,16 +1193,16 @@
         <v>30</v>
       </c>
       <c r="C28" s="4">
+        <v>0.46875</v>
+      </c>
+      <c r="D28" s="4">
         <v>0.48958333333333331</v>
       </c>
-      <c r="D28" s="4">
-        <v>0.57291666666666663</v>
-      </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -1203,13 +1216,13 @@
         <v>0.48958333333333331</v>
       </c>
       <c r="D29" s="4">
-        <v>0.50347222222222221</v>
+        <v>0.57291666666666663</v>
       </c>
       <c r="E29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="G29" t="s">
         <v>0</v>
@@ -1223,16 +1236,16 @@
         <v>30</v>
       </c>
       <c r="C30" s="4">
+        <v>0.48958333333333331</v>
+      </c>
+      <c r="D30" s="4">
         <v>0.50347222222222221</v>
       </c>
-      <c r="D30" s="4">
-        <v>0.51736111111111116</v>
-      </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
         <v>0</v>
@@ -1246,16 +1259,16 @@
         <v>30</v>
       </c>
       <c r="C31" s="4">
+        <v>0.50347222222222221</v>
+      </c>
+      <c r="D31" s="4">
         <v>0.51736111111111116</v>
       </c>
-      <c r="D31" s="4">
-        <v>0.53125</v>
-      </c>
       <c r="E31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F31" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G31" t="s">
         <v>0</v>
@@ -1269,13 +1282,16 @@
         <v>30</v>
       </c>
       <c r="C32" s="4">
+        <v>0.51736111111111116</v>
+      </c>
+      <c r="D32" s="4">
         <v>0.53125</v>
       </c>
-      <c r="D32" s="4">
-        <v>0.57291666666666663</v>
-      </c>
       <c r="E32" t="s">
-        <v>18</v>
+        <v>48</v>
+      </c>
+      <c r="F32" t="s">
+        <v>49</v>
       </c>
       <c r="G32" t="s">
         <v>0</v>
@@ -1289,26 +1305,46 @@
         <v>30</v>
       </c>
       <c r="C33" s="4">
+        <v>0.53125</v>
+      </c>
+      <c r="D33" s="4">
         <v>0.57291666666666663</v>
       </c>
-      <c r="D33" s="4">
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34">
+        <v>30</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.57291666666666663</v>
+      </c>
+      <c r="D34" s="4">
         <v>0.60763888888888884</v>
       </c>
-      <c r="E33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" t="s">
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" t="s">
         <v>4</v>
       </c>
-      <c r="G33" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F68" s="2"/>
+      <c r="G34" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="6:6" x14ac:dyDescent="0.2">
       <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workshops/202510_madrid/horario_workshop_madrid.xlsx
+++ b/workshops/202510_madrid/horario_workshop_madrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/GoogleDrive-ajperez@go.ugr.es/My Drive/_proyectos/redec/web/workshops/202510_madrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7613A5E3-9C04-9941-ABAB-6E83A20F6D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44920ABB-2461-8240-B8C0-C13AA7818B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9560" yWindow="1120" windowWidth="25600" windowHeight="26900" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
+    <workbookView xWindow="4640" yWindow="760" windowWidth="25600" windowHeight="17500" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,9 +94,6 @@
     <t>Debate abierto con participación de todos los asistentes</t>
   </si>
   <si>
-    <t>Francisco Lloret, Paloma Ruiz-Benito, Miren del Río, Rafael Calama, Antonio J. Pérez-Luque</t>
-  </si>
-  <si>
     <t>Agentes bióticos</t>
   </si>
   <si>
@@ -206,6 +203,9 @@
   </si>
   <si>
     <t>Juan José Robledo</t>
+  </si>
+  <si>
+    <t>Francisco Lloret, Paloma Ruiz-Benito, Miren del Río, Rafael Calama, Marta Pardos, Antonio J. Pérez-Luque</t>
   </si>
 </sst>
 </file>
@@ -259,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -268,7 +268,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,8 +584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23842808-1F00-0647-BAD4-FECC29C5B258}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -620,11 +619,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>28</v>
       </c>
       <c r="C2" s="4">
@@ -633,13 +632,13 @@
       <c r="D2" s="4">
         <v>0.37847222222222221</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" t="s">
         <v>0</v>
       </c>
     </row>
@@ -660,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>19</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -680,10 +679,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" t="s">
-        <v>28</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -726,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
@@ -749,7 +748,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G7" t="s">
         <v>0</v>
@@ -789,10 +788,10 @@
         <v>0.65625</v>
       </c>
       <c r="E9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G9" t="s">
         <v>0</v>
@@ -812,7 +811,7 @@
         <v>0.6875</v>
       </c>
       <c r="E10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F10" t="s">
         <v>4</v>
@@ -855,10 +854,10 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
         <v>31</v>
-      </c>
-      <c r="F12" t="s">
-        <v>32</v>
       </c>
       <c r="G12" t="s">
         <v>0</v>
@@ -878,7 +877,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F13" t="s">
         <v>4</v>
@@ -901,10 +900,10 @@
         <v>0.375</v>
       </c>
       <c r="E14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
@@ -924,7 +923,7 @@
         <v>0.4375</v>
       </c>
       <c r="E15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
@@ -964,7 +963,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G17" t="s">
         <v>7</v>
@@ -1004,7 +1003,7 @@
         <v>0.6875</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
@@ -1024,7 +1023,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="E20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
@@ -1064,10 +1063,10 @@
         <v>0.46875</v>
       </c>
       <c r="E22" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" t="s">
         <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>40</v>
       </c>
       <c r="G22" t="s">
         <v>0</v>
@@ -1087,10 +1086,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G23" t="s">
         <v>0</v>
@@ -1110,10 +1109,10 @@
         <v>0.40625</v>
       </c>
       <c r="E24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G24" t="s">
         <v>0</v>
@@ -1133,10 +1132,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G25" t="s">
         <v>0</v>
@@ -1156,10 +1155,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="E26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s">
         <v>0</v>
@@ -1219,10 +1218,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G29" t="s">
         <v>0</v>
@@ -1242,10 +1241,10 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="E30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G30" t="s">
         <v>0</v>
@@ -1265,10 +1264,10 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="E31" t="s">
+        <v>45</v>
+      </c>
+      <c r="F31" t="s">
         <v>46</v>
-      </c>
-      <c r="F31" t="s">
-        <v>47</v>
       </c>
       <c r="G31" t="s">
         <v>0</v>
@@ -1288,10 +1287,10 @@
         <v>0.53125</v>
       </c>
       <c r="E32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F32" t="s">
         <v>48</v>
-      </c>
-      <c r="F32" t="s">
-        <v>49</v>
       </c>
       <c r="G32" t="s">
         <v>0</v>
@@ -1331,7 +1330,7 @@
         <v>0.60763888888888884</v>
       </c>
       <c r="E34" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F34" t="s">
         <v>4</v>

--- a/workshops/202510_madrid/horario_workshop_madrid.xlsx
+++ b/workshops/202510_madrid/horario_workshop_madrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/GoogleDrive-ajperez@go.ugr.es/My Drive/_proyectos/redec/web/workshops/202510_madrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44920ABB-2461-8240-B8C0-C13AA7818B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5179A373-882A-1645-ABEE-4C1F2631A9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="760" windowWidth="25600" windowHeight="17500" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
+    <workbookView xWindow="-30240" yWindow="9920" windowWidth="30240" windowHeight="18880" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,12 +100,6 @@
     <t>Monitorización</t>
   </si>
   <si>
-    <t>Ecofisiología del decaimiento en el Levante y SE de la Península Ibérica</t>
-  </si>
-  <si>
-    <t>Dendroecología y vulnerabilidad al decaimiento en el Levante y SE de la Península Ibérica</t>
-  </si>
-  <si>
     <t>Herramientas de análisis geográfico del decaimiento</t>
   </si>
   <si>
@@ -178,9 +172,6 @@
     <t>Felipe Pérez Martín</t>
   </si>
   <si>
-    <t>Diversidad genética y capacidad adaptativa en pinsapares y cedrales con decaimiento</t>
-  </si>
-  <si>
     <t>Juan Carlos Linares</t>
   </si>
   <si>
@@ -206,6 +197,15 @@
   </si>
   <si>
     <t>Francisco Lloret, Paloma Ruiz-Benito, Miren del Río, Rafael Calama, Marta Pardos, Antonio J. Pérez-Luque</t>
+  </si>
+  <si>
+    <t>Diversidad genética y capacidad adaptativa en pinsapares y cedrales con decaimiento (\n\n[Presentación](slides_linares_redec_2025.pdf))</t>
+  </si>
+  <si>
+    <t>Dendroecología y vulnerabilidad al decaimiento en el Levante y SE de la Península Ibérica (\n\n[Presentación](slides_sanchez_salguero_redec_2025.pdf))</t>
+  </si>
+  <si>
+    <t>Ecofisiología del decaimiento en el Levante y SE de la Península Ibérica (\n\n[Presentación](slides_vilagrosa_redec_2025.pdf))</t>
   </si>
 </sst>
 </file>
@@ -584,15 +584,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23842808-1F00-0647-BAD4-FECC29C5B258}">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="5.1640625" customWidth="1"/>
     <col min="3" max="4" width="6.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="49.83203125" customWidth="1"/>
+    <col min="5" max="5" width="67.83203125" customWidth="1"/>
     <col min="6" max="6" width="76.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -633,10 +633,10 @@
         <v>0.37847222222222221</v>
       </c>
       <c r="E2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G2" t="s">
         <v>0</v>
@@ -659,7 +659,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
@@ -679,10 +679,10 @@
         <v>0.45833333333333331</v>
       </c>
       <c r="E4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G4" t="s">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>14</v>
       </c>
       <c r="F6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G6" t="s">
         <v>0</v>
@@ -748,7 +748,7 @@
         <v>15</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
         <v>0</v>
@@ -791,7 +791,7 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G9" t="s">
         <v>0</v>
@@ -854,10 +854,10 @@
         <v>0.72222222222222221</v>
       </c>
       <c r="E12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G12" t="s">
         <v>0</v>
@@ -877,7 +877,7 @@
         <v>0.77083333333333337</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F13" t="s">
         <v>4</v>
@@ -900,10 +900,10 @@
         <v>0.375</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G14" t="s">
         <v>7</v>
@@ -923,7 +923,7 @@
         <v>0.4375</v>
       </c>
       <c r="E15" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G15" t="s">
         <v>7</v>
@@ -963,7 +963,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="E17" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
         <v>7</v>
@@ -1003,7 +1003,7 @@
         <v>0.6875</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G19" t="s">
         <v>7</v>
@@ -1023,7 +1023,7 @@
         <v>0.73958333333333337</v>
       </c>
       <c r="E20" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G20" t="s">
         <v>7</v>
@@ -1063,10 +1063,10 @@
         <v>0.46875</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G22" t="s">
         <v>0</v>
@@ -1086,10 +1086,10 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F23" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G23" t="s">
         <v>0</v>
@@ -1109,10 +1109,10 @@
         <v>0.40625</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>55</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="G24" t="s">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         <v>0.41666666666666669</v>
       </c>
       <c r="E25" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="G25" t="s">
         <v>0</v>
@@ -1155,10 +1155,10 @@
         <v>0.42708333333333331</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F26" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G26" t="s">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>0.57291666666666663</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="G29" t="s">
         <v>0</v>
@@ -1241,10 +1241,10 @@
         <v>0.50347222222222221</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F30" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="G30" t="s">
         <v>0</v>
@@ -1264,10 +1264,10 @@
         <v>0.51736111111111116</v>
       </c>
       <c r="E31" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
         <v>0</v>
@@ -1287,10 +1287,10 @@
         <v>0.53125</v>
       </c>
       <c r="E32" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="F32" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="G32" t="s">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0.60763888888888884</v>
       </c>
       <c r="E34" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="F34" t="s">
         <v>4</v>

--- a/workshops/202510_madrid/horario_workshop_madrid.xlsx
+++ b/workshops/202510_madrid/horario_workshop_madrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/GoogleDrive-ajperez@go.ugr.es/My Drive/_proyectos/redec/web/workshops/202510_madrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5179A373-882A-1645-ABEE-4C1F2631A9E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DBB1C2-A958-A14D-8BC1-A37699601FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-30240" yWindow="9920" windowWidth="30240" windowHeight="18880" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
   </bookViews>

--- a/workshops/202510_madrid/horario_workshop_madrid.xlsx
+++ b/workshops/202510_madrid/horario_workshop_madrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/GoogleDrive-ajperez@go.ugr.es/My Drive/_proyectos/redec/web/workshops/202510_madrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DBB1C2-A958-A14D-8BC1-A37699601FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F407BA-5B82-434E-B084-F528AE1E853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="9920" windowWidth="30240" windowHeight="18880" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
+    <workbookView xWindow="2020" yWindow="8460" windowWidth="30240" windowHeight="18880" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -199,13 +199,13 @@
     <t>Francisco Lloret, Paloma Ruiz-Benito, Miren del Río, Rafael Calama, Marta Pardos, Antonio J. Pérez-Luque</t>
   </si>
   <si>
-    <t>Diversidad genética y capacidad adaptativa en pinsapares y cedrales con decaimiento (\n\n[Presentación](slides_linares_redec_2025.pdf))</t>
-  </si>
-  <si>
-    <t>Dendroecología y vulnerabilidad al decaimiento en el Levante y SE de la Península Ibérica (\n\n[Presentación](slides_sanchez_salguero_redec_2025.pdf))</t>
-  </si>
-  <si>
-    <t>Ecofisiología del decaimiento en el Levante y SE de la Península Ibérica (\n\n[Presentación](slides_vilagrosa_redec_2025.pdf))</t>
+    <t>Ecofisiología del decaimiento en el Levante y SE de la Península Ibérica</t>
+  </si>
+  <si>
+    <t>Dendroecología y vulnerabilidad al decaimiento en el Levante y SE de la Península Ibérica</t>
+  </si>
+  <si>
+    <t>Diversidad genética y capacidad adaptativa en pinsapares y cedrales con decaimiento</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B17" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1086,7 +1086,7 @@
         <v>0.39583333333333331</v>
       </c>
       <c r="E23" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
@@ -1287,7 +1287,7 @@
         <v>0.53125</v>
       </c>
       <c r="E32" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F32" t="s">
         <v>45</v>

--- a/workshops/202510_madrid/horario_workshop_madrid.xlsx
+++ b/workshops/202510_madrid/horario_workshop_madrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/GoogleDrive-ajperez@go.ugr.es/My Drive/_proyectos/redec/web/workshops/202510_madrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4F407BA-5B82-434E-B084-F528AE1E853D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1399C5B3-104B-4240-9A4F-6CC86323D7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2020" yWindow="8460" windowWidth="30240" windowHeight="18880" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
+    <workbookView xWindow="-30240" yWindow="9920" windowWidth="30240" windowHeight="18880" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="62">
   <si>
     <t>mesa</t>
   </si>
@@ -206,6 +206,21 @@
   </si>
   <si>
     <t>Diversidad genética y capacidad adaptativa en pinsapares y cedrales con decaimiento</t>
+  </si>
+  <si>
+    <t>slides</t>
+  </si>
+  <si>
+    <t>[Resultados Cuestionario](monitorizacion_resumen_cuestionario_2025.pdf)</t>
+  </si>
+  <si>
+    <t>[Presentación](slides_vilagrosa_redec_2025.pdf)</t>
+  </si>
+  <si>
+    <t>[Presentación](slides_sanchez_salguero_redec_2025.pdf)</t>
+  </si>
+  <si>
+    <t>[Presentación](slides_linares_redec_2025.pdf)</t>
   </si>
 </sst>
 </file>
@@ -582,10 +597,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23842808-1F00-0647-BAD4-FECC29C5B258}">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,7 +611,7 @@
     <col min="6" max="6" width="76.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -618,8 +633,11 @@
       <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -642,7 +660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -665,7 +683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -688,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -708,7 +726,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -731,7 +749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -754,7 +772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -774,7 +792,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -797,7 +815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -819,8 +837,11 @@
       <c r="G10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -840,7 +861,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -863,7 +884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -886,7 +907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>7</v>
       </c>
@@ -909,7 +930,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -929,7 +950,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>7</v>
       </c>
@@ -949,7 +970,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>7</v>
       </c>
@@ -969,7 +990,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>7</v>
       </c>
@@ -989,7 +1010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>7</v>
       </c>
@@ -1009,7 +1030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1029,7 +1050,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>16</v>
       </c>
@@ -1049,7 +1070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>16</v>
       </c>
@@ -1072,7 +1093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>16</v>
       </c>
@@ -1094,8 +1115,11 @@
       <c r="G23" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H23" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>16</v>
       </c>
@@ -1117,8 +1141,11 @@
       <c r="G24" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>16</v>
       </c>
@@ -1141,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -1164,7 +1191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1184,7 +1211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>16</v>
       </c>
@@ -1204,7 +1231,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>16</v>
       </c>
@@ -1227,7 +1254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -1250,7 +1277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>16</v>
       </c>
@@ -1273,7 +1300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -1294,6 +1321,9 @@
       </c>
       <c r="G32" t="s">
         <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">

--- a/workshops/202510_madrid/horario_workshop_madrid.xlsx
+++ b/workshops/202510_madrid/horario_workshop_madrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/GoogleDrive-ajperez@go.ugr.es/My Drive/_proyectos/redec/web/workshops/202510_madrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1399C5B3-104B-4240-9A4F-6CC86323D7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86819DD0-5554-A640-B9E3-3843D286980D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30240" yWindow="9920" windowWidth="30240" windowHeight="18880" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="17520" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
   <si>
     <t>mesa</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>[Presentación](slides_linares_redec_2025.pdf)</t>
+  </si>
+  <si>
+    <t>[Presentación](slides_grupo_suelos_madrid_2025.pdf)</t>
   </si>
 </sst>
 </file>
@@ -599,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23842808-1F00-0647-BAD4-FECC29C5B258}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -609,6 +612,7 @@
     <col min="3" max="4" width="6.83203125" style="4" customWidth="1"/>
     <col min="5" max="5" width="67.83203125" customWidth="1"/>
     <col min="6" max="6" width="76.83203125" customWidth="1"/>
+    <col min="8" max="8" width="19.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -771,6 +775,9 @@
       <c r="G7" t="s">
         <v>0</v>
       </c>
+      <c r="H7" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">

--- a/workshops/202510_madrid/horario_workshop_madrid.xlsx
+++ b/workshops/202510_madrid/horario_workshop_madrid.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/GoogleDrive-ajperez@go.ugr.es/My Drive/_proyectos/redec/web/workshops/202510_madrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86819DD0-5554-A640-B9E3-3843D286980D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F494608B-88BE-7748-B95E-D74E529B334D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="17520" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
   <si>
     <t>mesa</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>[Presentación](slides_grupo_suelos_madrid_2025.pdf)</t>
+  </si>
+  <si>
+    <t>[Presentación](slides_jordan_redec_2025.pdf)</t>
   </si>
 </sst>
 </file>
@@ -602,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23842808-1F00-0647-BAD4-FECC29C5B258}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1197,6 +1200,9 @@
       <c r="G26" t="s">
         <v>0</v>
       </c>
+      <c r="H26" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">

--- a/workshops/202510_madrid/horario_workshop_madrid.xlsx
+++ b/workshops/202510_madrid/horario_workshop_madrid.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ajpelu/Library/CloudStorage/GoogleDrive-ajperez@go.ugr.es/My Drive/_proyectos/redec/web/workshops/202510_madrid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F494608B-88BE-7748-B95E-D74E529B334D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E58F9190-0EB2-2745-B7F3-673B9FFCD1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="25600" windowHeight="17520" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
+    <workbookView xWindow="-30240" yWindow="9920" windowWidth="30240" windowHeight="18880" xr2:uid="{84970D50-5D21-5E42-9853-805AAEAB4DEB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="67">
   <si>
     <t>mesa</t>
   </si>
@@ -227,6 +227,15 @@
   </si>
   <si>
     <t>[Presentación](slides_jordan_redec_2025.pdf)</t>
+  </si>
+  <si>
+    <t>[Presentación](slides_martinezvilalta_redec_2025.pdf)</t>
+  </si>
+  <si>
+    <t>[Presentación](slides_perezmartin_redec_2025.pdf)</t>
+  </si>
+  <si>
+    <t>[Presentación](slides_gonzalez_tome_redec_2025.pdf)</t>
   </si>
 </sst>
 </file>
@@ -605,8 +614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23842808-1F00-0647-BAD4-FECC29C5B258}">
   <dimension ref="A1:H70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="151" zoomScaleNormal="151" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -893,6 +902,9 @@
       <c r="G12" t="s">
         <v>0</v>
       </c>
+      <c r="H12" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1177,6 +1189,9 @@
       <c r="G25" t="s">
         <v>0</v>
       </c>
+      <c r="H25" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
@@ -1311,6 +1326,9 @@
       </c>
       <c r="G31" t="s">
         <v>0</v>
+      </c>
+      <c r="H31" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
